--- a/results/original/uvg_results.xlsx
+++ b/results/original/uvg_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwanhoman/Library/Mobile Documents/com~apple~CloudDocs/Research/phd_research/HiNeRV/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwanhoman/Programs/HiNeRV-dev/results/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672C59EB-D4B4-8747-974C-A0154BE604A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA0149-ADC8-B64B-8406-D2C9A9D8DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="15580" windowWidth="46120" windowHeight="16880" xr2:uid="{4D38FF02-94A8-5C48-AE8D-BC31E14DD010}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4D38FF02-94A8-5C48-AE8D-BC31E14DD010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,11 +426,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE35A4D-D7CD-2C4E-BD9A-293BC241F6A7}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -529,372 +552,372 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>33.869700000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.90410000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>37.527999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>38.753799999999998</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.98509999999999998</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>35.385800000000003</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>0.95320000000000005</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>30.628699999999998</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>0.9617</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>35.318899999999999</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>0.95989999999999998</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>30.2379</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>0.94099999999999995</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>1.4885714285714285E-2</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>34.531828571428576</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>0.95514285714285718</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>34.071899999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.91</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>39.359699999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2.64E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>39.2851</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>37.356000000000002</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.96550000000000002</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>2.63E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>33.618000000000002</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>36.411299999999997</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>0.97040000000000004</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>31.986499999999999</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>0.96060000000000001</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>2.9742857142857144E-2</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>36.012642857142858</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>0.96530000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>34.405799999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5.11E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>41.144300000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.99009999999999998</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>39.693100000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.9869</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>5.11E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>38.560099999999998</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>0.97230000000000005</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>36.552399999999999</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>37.667099999999998</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>5.11E-2</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>34.128399999999999</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>0.97509999999999997</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>5.8028571428571422E-2</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>37.45017142857143</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>0.97252857142857152</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>34.749600000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.92830000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.10150000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>42.404600000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>40.065199999999997</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.98839999999999995</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.1017</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>39.1402</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>0.97640000000000005</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>0.1018</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>38.649500000000003</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>0.1971</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>38.770299999999999</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>0.98419999999999996</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>0.1019</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>36.431899999999999</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>0.98440000000000005</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <v>0.11542857142857142</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>38.601614285714284</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>0.97781428571428575</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>0.20069999999999999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>35.241500000000002</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.94059999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.1981</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>43.278599999999997</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.99319999999999997</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.1993</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>40.329700000000003</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.98960000000000004</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0.19969999999999999</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>39.819200000000002</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0.98019999999999996</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>0.1991</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>40.1372</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>0.9929</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>0.38669999999999999</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>39.72</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>0.98870000000000002</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>0.19950000000000001</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>38.856499999999997</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>0.9899</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>0.22615714285714286</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>39.626100000000001</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>0.98215714285714284</v>
       </c>
     </row>
